--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.5815877712144</v>
+        <v>153.1683896122485</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.5120716051692</v>
+        <v>209.5717479798269</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.2884633678143</v>
+        <v>189.5705144884877</v>
       </c>
       <c r="AD2" t="n">
-        <v>116581.5877712144</v>
+        <v>153168.3896122485</v>
       </c>
       <c r="AE2" t="n">
-        <v>159512.0716051692</v>
+        <v>209571.7479798269</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.562033986603925e-06</v>
+        <v>4.740433652683289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.930989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>144288.4633678143</v>
+        <v>189570.5144884877</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.52500884143892</v>
+        <v>126.0264698279013</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.4920666614503</v>
+        <v>172.4349759139104</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.8015957380089</v>
+        <v>155.9780238267435</v>
       </c>
       <c r="AD3" t="n">
-        <v>89525.00884143892</v>
+        <v>126026.4698279013</v>
       </c>
       <c r="AE3" t="n">
-        <v>122492.0666614503</v>
+        <v>172434.9759139104</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.096367796916481e-06</v>
+        <v>5.729091098063115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>110801.5957380089</v>
+        <v>155978.0238267435</v>
       </c>
     </row>
     <row r="4">
@@ -1864,28 +1864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.69739767745702</v>
+        <v>126.1988586639194</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.7279366721488</v>
+        <v>172.6708459246089</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.0149546459321</v>
+        <v>156.1913827346666</v>
       </c>
       <c r="AD4" t="n">
-        <v>89697.39767745702</v>
+        <v>126198.8586639194</v>
       </c>
       <c r="AE4" t="n">
-        <v>122727.9366721488</v>
+        <v>172670.8459246089</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.093870255517589e-06</v>
+        <v>5.724469992582788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>111014.9546459321</v>
+        <v>156191.3827346666</v>
       </c>
     </row>
   </sheetData>
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.8533047409146</v>
+        <v>137.9738489384736</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.7284291140197</v>
+        <v>188.7819070941541</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.2975053530063</v>
+        <v>170.7648268382119</v>
       </c>
       <c r="AD2" t="n">
-        <v>102853.3047409146</v>
+        <v>137973.8489384736</v>
       </c>
       <c r="AE2" t="n">
-        <v>140728.4291140197</v>
+        <v>188781.9070941541</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.960839400196273e-06</v>
+        <v>5.643816850220676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>127297.5053530063</v>
+        <v>170764.8268382119</v>
       </c>
     </row>
     <row r="3">
@@ -2267,28 +2267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.93780027297186</v>
+        <v>120.1435958165515</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.2156455247176</v>
+        <v>164.3857681575012</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.1241874255516</v>
+        <v>148.6970211614694</v>
       </c>
       <c r="AD3" t="n">
-        <v>84937.80027297186</v>
+        <v>120143.5958165515</v>
       </c>
       <c r="AE3" t="n">
-        <v>116215.6455247176</v>
+        <v>164385.7681575012</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.234612007596578e-06</v>
+        <v>6.165669691908835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>105124.1874255516</v>
+        <v>148697.0211614694</v>
       </c>
     </row>
   </sheetData>
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.38355438805651</v>
+        <v>105.310528878989</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.457301853374</v>
+        <v>144.0905115848096</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.4382190098588</v>
+        <v>130.3387153914975</v>
       </c>
       <c r="AD2" t="n">
-        <v>84383.55438805651</v>
+        <v>105310.528878989</v>
       </c>
       <c r="AE2" t="n">
-        <v>115457.301853374</v>
+        <v>144090.5115848096</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.475013324479365e-06</v>
+        <v>7.400868959957408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.045572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>104438.2190098588</v>
+        <v>130338.7153914975</v>
       </c>
     </row>
   </sheetData>
@@ -2861,28 +2861,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.0637167377311</v>
+        <v>109.8937640217601</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.4419770517578</v>
+        <v>150.3614961052098</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.37874275070902</v>
+        <v>136.0112059506548</v>
       </c>
       <c r="AD2" t="n">
-        <v>77063.7167377311</v>
+        <v>109893.7640217601</v>
       </c>
       <c r="AE2" t="n">
-        <v>105441.9770517578</v>
+        <v>150361.4961052098</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.46612789546363e-06</v>
+        <v>7.037437977950055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>95378.74275070902</v>
+        <v>136011.2059506548</v>
       </c>
     </row>
   </sheetData>
@@ -3158,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.26722287950511</v>
+        <v>111.236095569893</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.193399600533</v>
+        <v>152.1981333488527</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.5812576036032</v>
+        <v>137.6725571135016</v>
       </c>
       <c r="AD2" t="n">
-        <v>81267.22287950512</v>
+        <v>111236.095569893</v>
       </c>
       <c r="AE2" t="n">
-        <v>111193.399600533</v>
+        <v>152198.1333488527</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.440492876569789e-06</v>
+        <v>7.661305625148887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.292968750000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>100581.2576036032</v>
+        <v>137672.5571135016</v>
       </c>
     </row>
   </sheetData>
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.9303502059108</v>
+        <v>140.3914489880937</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.5703343520049</v>
+        <v>192.0897741390293</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.8681831437182</v>
+        <v>173.7569956949458</v>
       </c>
       <c r="AD2" t="n">
-        <v>104930.3502059108</v>
+        <v>140391.4489880937</v>
       </c>
       <c r="AE2" t="n">
-        <v>143570.3343520049</v>
+        <v>192089.7741390293</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.901530686624948e-06</v>
+        <v>5.4861088056647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>129868.1831437182</v>
+        <v>173756.9956949458</v>
       </c>
     </row>
     <row r="3">
@@ -3561,28 +3561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.36086204516276</v>
+        <v>121.9072121733662</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.1627414224827</v>
+        <v>166.7988258621563</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.8854552236008</v>
+        <v>150.8797800255407</v>
       </c>
       <c r="AD3" t="n">
-        <v>86360.86204516276</v>
+        <v>121907.2121733662</v>
       </c>
       <c r="AE3" t="n">
-        <v>118162.7414224827</v>
+        <v>166798.8258621563</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.188709311237832e-06</v>
+        <v>6.029095715487815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>106885.4552236008</v>
+        <v>150879.7800255407</v>
       </c>
     </row>
   </sheetData>
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.93533738208289</v>
+        <v>109.3341043364788</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.3710551043197</v>
+        <v>149.5957450333656</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.93283510843131</v>
+        <v>135.3185370863688</v>
       </c>
       <c r="AD2" t="n">
-        <v>79935.33738208289</v>
+        <v>109334.1043364788</v>
       </c>
       <c r="AE2" t="n">
-        <v>109371.0551043197</v>
+        <v>149595.7450333656</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.352719083790618e-06</v>
+        <v>7.686332287501387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.559895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>98932.8351084313</v>
+        <v>135318.5370863688</v>
       </c>
     </row>
   </sheetData>
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.11487767116962</v>
+        <v>116.2154088165685</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.353198282378</v>
+        <v>159.0110494047476</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6303667270409</v>
+        <v>143.8352580230117</v>
       </c>
       <c r="AD2" t="n">
-        <v>82114.87767116963</v>
+        <v>116215.4088165685</v>
       </c>
       <c r="AE2" t="n">
-        <v>112353.198282378</v>
+        <v>159011.0494047476</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.293568812035634e-06</v>
+        <v>6.45534935468564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.915364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>101630.3667270409</v>
+        <v>143835.2580230117</v>
       </c>
     </row>
     <row r="3">
@@ -4261,28 +4261,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.45751872274859</v>
+        <v>115.5580498681475</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.4537707685187</v>
+        <v>158.1116218908883</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.8167793127496</v>
+        <v>143.0216706087205</v>
       </c>
       <c r="AD3" t="n">
-        <v>81457.51872274859</v>
+        <v>115558.0498681475</v>
       </c>
       <c r="AE3" t="n">
-        <v>111453.7707685187</v>
+        <v>158111.6218908883</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.334891734957003e-06</v>
+        <v>6.536341712531446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100816.7793127496</v>
+        <v>143021.6706087205</v>
       </c>
     </row>
   </sheetData>
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.3853875841183</v>
+        <v>136.1524271815394</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.7199601001576</v>
+        <v>186.2897574908612</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.4807218029226</v>
+        <v>168.5105244953026</v>
       </c>
       <c r="AD2" t="n">
-        <v>101385.3875841183</v>
+        <v>136152.4271815394</v>
       </c>
       <c r="AE2" t="n">
-        <v>138719.9601001576</v>
+        <v>186289.7574908612</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.001833088924253e-06</v>
+        <v>5.771633729436406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>125480.7218029226</v>
+        <v>168510.5244953026</v>
       </c>
     </row>
     <row r="3">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.00180508093534</v>
+        <v>118.854096024377</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.9349756097803</v>
+        <v>162.6214176531331</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.965742849864</v>
+        <v>147.1010577929561</v>
       </c>
       <c r="AD3" t="n">
-        <v>84001.80508093534</v>
+        <v>118854.096024377</v>
       </c>
       <c r="AE3" t="n">
-        <v>114934.9756097803</v>
+        <v>162621.4176531331</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.249978904083646e-06</v>
+        <v>6.248744452839649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>103965.742849864</v>
+        <v>147101.0577929561</v>
       </c>
     </row>
   </sheetData>
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.2310960053587</v>
+        <v>148.5096623234668</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.5595368409774</v>
+        <v>203.1974717747765</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.9040301670801</v>
+        <v>183.8045902580925</v>
       </c>
       <c r="AD2" t="n">
-        <v>112231.0960053586</v>
+        <v>148509.6623234668</v>
       </c>
       <c r="AE2" t="n">
-        <v>153559.5368409774</v>
+        <v>203197.4717747766</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.679733092586075e-06</v>
+        <v>4.992139503314878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>138904.0301670801</v>
+        <v>183804.5902580925</v>
       </c>
     </row>
     <row r="3">
@@ -5067,28 +5067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.92268448500553</v>
+        <v>125.1159099485421</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.6679399043034</v>
+        <v>171.1891077159049</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.0561224818946</v>
+        <v>154.8510595409683</v>
       </c>
       <c r="AD3" t="n">
-        <v>88922.68448500553</v>
+        <v>125115.9099485421</v>
       </c>
       <c r="AE3" t="n">
-        <v>121667.9399043034</v>
+        <v>171189.1077159049</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.107050467602961e-06</v>
+        <v>5.788199362476428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.928385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>110056.1224818947</v>
+        <v>154851.0595409683</v>
       </c>
     </row>
   </sheetData>
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.66995805887869</v>
+        <v>111.9460676716337</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.6397072897168</v>
+        <v>153.1695485002126</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.36672469929157</v>
+        <v>138.5512617662056</v>
       </c>
       <c r="AD2" t="n">
-        <v>78669.95805887869</v>
+        <v>111946.0676716337</v>
       </c>
       <c r="AE2" t="n">
-        <v>107639.7072897168</v>
+        <v>153169.5485002125</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.413813624728888e-06</v>
+        <v>6.842980381110348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>97366.72469929156</v>
+        <v>138551.2617662056</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.03325237658474</v>
+        <v>106.8836585426288</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6638061350733</v>
+        <v>146.2429369921831</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.86571656712455</v>
+        <v>132.28571633894</v>
       </c>
       <c r="AD2" t="n">
-        <v>75033.25237658474</v>
+        <v>106883.6585426288</v>
       </c>
       <c r="AE2" t="n">
-        <v>102663.8061350733</v>
+        <v>146242.9369921831</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.473125027825449e-06</v>
+        <v>7.26599476021534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92865.71656712455</v>
+        <v>132285.71633894</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.69590383721169</v>
+        <v>103.2267637515505</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.1481839158217</v>
+        <v>141.2394122082202</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.3494800473983</v>
+        <v>127.7597209378658</v>
       </c>
       <c r="AD2" t="n">
-        <v>82695.90383721169</v>
+        <v>103226.7637515505</v>
       </c>
       <c r="AE2" t="n">
-        <v>113148.1839158217</v>
+        <v>141239.4122082202</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.482170989465432e-06</v>
+        <v>7.569737497077474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>102349.4800473983</v>
+        <v>127759.7209378658</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.39724532992192</v>
+        <v>116.8491260070227</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.9490108715788</v>
+        <v>159.8781292223559</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.4058070270298</v>
+        <v>144.6195849597819</v>
       </c>
       <c r="AD2" t="n">
-        <v>88397.24532992192</v>
+        <v>116849.1260070227</v>
       </c>
       <c r="AE2" t="n">
-        <v>120949.0108715788</v>
+        <v>159878.1292223558</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.17141645231766e-06</v>
+        <v>7.54329954439822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>109405.8070270298</v>
+        <v>144619.5849597819</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.9883842879517</v>
+        <v>121.0349863988096</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.0720303251363</v>
+        <v>165.6054080775232</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.2763839222175</v>
+        <v>149.8002603593002</v>
       </c>
       <c r="AD2" t="n">
-        <v>97988.3842879517</v>
+        <v>121034.9863988096</v>
       </c>
       <c r="AE2" t="n">
-        <v>134072.0303251363</v>
+        <v>165605.4080775232</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.119321122965229e-06</v>
+        <v>6.053286554392958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.13671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>121276.3839222175</v>
+        <v>149800.2603593002</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.69720269859434</v>
+        <v>117.181630747483</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.1499610752672</v>
+        <v>160.3330768773272</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.3510875972406</v>
+        <v>145.031113049086</v>
       </c>
       <c r="AD3" t="n">
-        <v>82697.20269859434</v>
+        <v>117181.630747483</v>
       </c>
       <c r="AE3" t="n">
-        <v>113149.9610752672</v>
+        <v>160333.0768773273</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.298917877517461e-06</v>
+        <v>6.401808100167698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>102351.0875972406</v>
+        <v>145031.113049086</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.0311399935375</v>
+        <v>143.9916321059104</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.8129717366244</v>
+        <v>197.0157035096933</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.7059091709299</v>
+        <v>178.2128012800605</v>
       </c>
       <c r="AD2" t="n">
-        <v>108031.1399935375</v>
+        <v>143991.6321059105</v>
       </c>
       <c r="AE2" t="n">
-        <v>147812.9717366244</v>
+        <v>197015.7035096933</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.804414555382272e-06</v>
+        <v>5.262181679298871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>133705.9091709299</v>
+        <v>178212.8012800605</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.51950042471415</v>
+        <v>123.3946516825155</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.7480415689019</v>
+        <v>168.8340062197732</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.319456549029</v>
+        <v>152.7207256262208</v>
       </c>
       <c r="AD3" t="n">
-        <v>87519.50042471415</v>
+        <v>123394.6516825155</v>
       </c>
       <c r="AE3" t="n">
-        <v>119748.0415689019</v>
+        <v>168834.0062197731</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.151849660098191e-06</v>
+        <v>5.914106209954495e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>108319.456549029</v>
+        <v>152720.7256262208</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.07789324247165</v>
+        <v>124.5585616407225</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.8262563086811</v>
+        <v>170.4265191726746</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.1495048294376</v>
+        <v>154.1612513780039</v>
       </c>
       <c r="AD2" t="n">
-        <v>97077.89324247165</v>
+        <v>124558.5616407225</v>
       </c>
       <c r="AE2" t="n">
-        <v>132826.2563086811</v>
+        <v>170426.5191726746</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.764048342607343e-06</v>
+        <v>6.912675142526743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.180989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>120149.5048294376</v>
+        <v>154161.2513780039</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.33893261065469</v>
+        <v>108.6954326791114</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.4502954338734</v>
+        <v>148.721886295551</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.48170583460124</v>
+        <v>134.5280782000225</v>
       </c>
       <c r="AD2" t="n">
-        <v>76338.93261065469</v>
+        <v>108695.4326791114</v>
       </c>
       <c r="AE2" t="n">
-        <v>104450.2954338734</v>
+        <v>148721.886295551</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.457852497222097e-06</v>
+        <v>7.120698448145513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>94481.70583460125</v>
+        <v>134528.0782000225</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.0296641981657</v>
+        <v>113.7282453299143</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.5001172154896</v>
+        <v>155.6080025964</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.04957971285097</v>
+        <v>140.7569932258456</v>
       </c>
       <c r="AD2" t="n">
-        <v>80029.6641981657</v>
+        <v>113728.2453299143</v>
       </c>
       <c r="AE2" t="n">
-        <v>109500.1172154896</v>
+        <v>155608.0025964</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.373067347959933e-06</v>
+        <v>6.682667437751656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99049.57971285097</v>
+        <v>140756.9932258456</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.16188196521458</v>
+        <v>113.8604630969632</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.681023397402</v>
+        <v>155.7889087783124</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.21322046266513</v>
+        <v>140.9206339756597</v>
       </c>
       <c r="AD3" t="n">
-        <v>80161.88196521458</v>
+        <v>113860.4630969632</v>
       </c>
       <c r="AE3" t="n">
-        <v>109681.023397402</v>
+        <v>155788.9087783124</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.374576685416511e-06</v>
+        <v>6.685657713139947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.850260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99213.22046266514</v>
+        <v>140920.6339756597</v>
       </c>
     </row>
   </sheetData>
